--- a/users.xlsx
+++ b/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\github\PythonInExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E68698-55C1-40D3-A5FD-D0E7B5865778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7432F689-7EE9-44AB-812D-A8FFBCCDCF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15030" yWindow="2925" windowWidth="11625" windowHeight="11385" activeTab="1" xr2:uid="{B0C60449-5123-4B6B-AE6B-5DDED3AD343B}"/>
+    <workbookView xWindow="810" yWindow="3555" windowWidth="11625" windowHeight="11385" xr2:uid="{B0C60449-5123-4B6B-AE6B-5DDED3AD343B}"/>
   </bookViews>
   <sheets>
     <sheet name="User_info" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>User Name</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Montreal</t>
   </si>
 </sst>
 </file>
@@ -498,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0839999D-A244-4B5E-BF82-CA5CA7400919}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,6 +601,40 @@
         <v>30</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -604,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A105E14-3D02-4FFD-BF02-1FEEFEF572DC}">
   <dimension ref="A4:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/users.xlsx
+++ b/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\github\PythonInExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7432F689-7EE9-44AB-812D-A8FFBCCDCF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF75CA00-4970-46C6-A39E-940908A25E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="3555" windowWidth="11625" windowHeight="11385" xr2:uid="{B0C60449-5123-4B6B-AE6B-5DDED3AD343B}"/>
   </bookViews>
